--- a/biology/Botanique/Institut_de_Beauvais/Institut_de_Beauvais.xlsx
+++ b/biology/Botanique/Institut_de_Beauvais/Institut_de_Beauvais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Institut de Beauvais est le nom d'une variété de pomme de terre française qui fut créée à la fin du XIXe siècle à l'Institut agricole de Beauvais à Beauvais, dans le département de l'Oise. C'est l'une des plus anciennes variétés encore inscrite au catalogue officiel des variétés, où elle figure depuis 1935, date de création du catalogue.
@@ -512,9 +524,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les tubercules, de grande taille, de forme plutôt ronde à oblongue, ont la peau blanc jaunâtre et la chair blanche. Contrairement aux variétés récentes, les yeux sont relativement enfoncés[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tubercules, de grande taille, de forme plutôt ronde à oblongue, ont la peau blanc jaunâtre et la chair blanche. Contrairement aux variétés récentes, les yeux sont relativement enfoncés.
 Sa chair assez farineuse est particulièrement adaptée à la préparation de purées.
 La plante est relativement tardive.
 </t>
@@ -545,13 +559,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette variété a été obtenue en 1856 par un professeur de l'institut agricole de Beauvais, Eugène Chanoine, et fut commercialisée en 1884 en même temps par l'institut et par la maison Vilmorin[2].
-Son origine génétique est inconnue, mais les graines du premier semis fait par son obtenteur, Eugène Chanoine, furent fournies par la maison Vilmorin[2].
-Sa culture, qui était encore très importante dans les années 1950 a fortement baissé depuis 1990 mais la production de plants représentait encore 139 tonnes en 2007, dont environ un quart destiné au marché des jardiniers amateurs[2].
-La pomme de terre 'Institut de Beauvais' a été employée comme géniteur pour l'obtention de nouvelles variétés notamment en France (variété 'Hermine', 1950) et en Espagne (variétés 'Blanca de Cernegula', 'Goya', 1954, et 'Turia', 1955)[3].
-Elle serait aussi à l'origine de la Patata del Bufet, variété traditionnelle cultivée en Catalogne[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette variété a été obtenue en 1856 par un professeur de l'institut agricole de Beauvais, Eugène Chanoine, et fut commercialisée en 1884 en même temps par l'institut et par la maison Vilmorin.
+Son origine génétique est inconnue, mais les graines du premier semis fait par son obtenteur, Eugène Chanoine, furent fournies par la maison Vilmorin.
+Sa culture, qui était encore très importante dans les années 1950 a fortement baissé depuis 1990 mais la production de plants représentait encore 139 tonnes en 2007, dont environ un quart destiné au marché des jardiniers amateurs.
+La pomme de terre 'Institut de Beauvais' a été employée comme géniteur pour l'obtention de nouvelles variétés notamment en France (variété 'Hermine', 1950) et en Espagne (variétés 'Blanca de Cernegula', 'Goya', 1954, et 'Turia', 1955).
+Elle serait aussi à l'origine de la Patata del Bufet, variété traditionnelle cultivée en Catalogne.
 </t>
         </is>
       </c>
